--- a/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Componentes!$A$1:$Z$355</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Graduacion!$A$1:$G$1273</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="671">
   <si>
     <t>ID</t>
   </si>
@@ -3110,6 +3110,9 @@
   <si>
     <t>% FA</t>
   </si>
+  <si>
+    <t>Se añadió categoría de colapsar el 29/10/24</t>
+  </si>
 </sst>
 </file>
 
@@ -3119,7 +3122,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3153,8 +3156,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3209,8 +3218,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3329,11 +3344,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3484,9 +3528,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3502,7 +3561,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45569.495609490739" refreshedVersion="6" recordCount="354">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45593.715164120367" refreshedVersion="6" recordCount="354">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S355" sheet="Componentes"/>
   </cacheSource>
@@ -11728,9 +11787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12154,7 +12213,9 @@
       <c r="Q8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="8"/>
+      <c r="R8" s="69" t="s">
+        <v>57</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="10"/>
     </row>
@@ -12208,7 +12269,9 @@
       <c r="Q9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="8"/>
+      <c r="R9" s="69" t="s">
+        <v>57</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="10"/>
     </row>
@@ -12262,7 +12325,9 @@
       <c r="Q10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="69" t="s">
+        <v>57</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="10"/>
     </row>
@@ -12426,7 +12491,9 @@
       <c r="Q13" s="3">
         <v>165.845</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="10"/>
     </row>
@@ -12482,7 +12549,9 @@
       <c r="Q14" s="3">
         <v>165.845</v>
       </c>
-      <c r="R14" s="8"/>
+      <c r="R14" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="10"/>
     </row>
@@ -12538,7 +12607,9 @@
       <c r="Q15" s="3">
         <v>165.845</v>
       </c>
-      <c r="R15" s="8"/>
+      <c r="R15" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="10"/>
     </row>
@@ -12594,7 +12665,9 @@
       <c r="Q16" s="3">
         <v>165.845</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="10"/>
     </row>
@@ -20096,7 +20169,9 @@
       <c r="Q151" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R151" s="3"/>
+      <c r="R151" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S151" s="3"/>
       <c r="T151" s="10"/>
     </row>
@@ -20150,7 +20225,9 @@
       <c r="Q152" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R152" s="3"/>
+      <c r="R152" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S152" s="3"/>
       <c r="T152" s="10"/>
     </row>
@@ -20204,7 +20281,9 @@
       <c r="Q153" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R153" s="3"/>
+      <c r="R153" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S153" s="3"/>
       <c r="T153" s="10"/>
     </row>
@@ -20258,7 +20337,9 @@
       <c r="Q154" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R154" s="3"/>
+      <c r="R154" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S154" s="3"/>
       <c r="T154" s="10"/>
     </row>
@@ -20312,7 +20393,9 @@
       <c r="Q155" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R155" s="3"/>
+      <c r="R155" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S155" s="3"/>
       <c r="T155" s="10"/>
     </row>
@@ -20366,7 +20449,9 @@
       <c r="Q156" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R156" s="3"/>
+      <c r="R156" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S156" s="3"/>
       <c r="T156" s="10"/>
     </row>
@@ -20420,7 +20505,9 @@
       <c r="Q157" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R157" s="3"/>
+      <c r="R157" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S157" s="3"/>
       <c r="T157" s="10"/>
     </row>
@@ -20474,7 +20561,9 @@
       <c r="Q158" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R158" s="3"/>
+      <c r="R158" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S158" s="3"/>
       <c r="T158" s="10"/>
     </row>
@@ -21118,7 +21207,9 @@
       <c r="Q170" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R170" s="3"/>
+      <c r="R170" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S170" s="3"/>
       <c r="T170" s="10"/>
     </row>
@@ -21172,7 +21263,9 @@
       <c r="Q171" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R171" s="3"/>
+      <c r="R171" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S171" s="3"/>
       <c r="T171" s="10"/>
     </row>
@@ -21226,7 +21319,9 @@
       <c r="Q172" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R172" s="3"/>
+      <c r="R172" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S172" s="3"/>
       <c r="T172" s="10"/>
     </row>
@@ -21280,7 +21375,9 @@
       <c r="Q173" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R173" s="3"/>
+      <c r="R173" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S173" s="3"/>
       <c r="T173" s="10"/>
     </row>
@@ -25204,7 +25301,9 @@
       <c r="Q247" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="R247" s="3"/>
+      <c r="R247" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S247" s="3"/>
       <c r="T247" s="10"/>
     </row>
@@ -25258,7 +25357,9 @@
       <c r="Q248" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="R248" s="3"/>
+      <c r="R248" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S248" s="3"/>
       <c r="T248" s="10"/>
     </row>
@@ -25312,7 +25413,9 @@
       <c r="Q249" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="R249" s="3"/>
+      <c r="R249" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S249" s="3"/>
       <c r="T249" s="10"/>
     </row>
@@ -26702,7 +26805,9 @@
       <c r="Q276" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="R276" s="3"/>
+      <c r="R276" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S276" s="3"/>
       <c r="T276" s="10"/>
     </row>
@@ -26756,7 +26861,9 @@
       <c r="Q277" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="R277" s="3"/>
+      <c r="R277" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S277" s="3"/>
       <c r="T277" s="10"/>
     </row>
@@ -26810,7 +26917,9 @@
       <c r="Q278" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="R278" s="3"/>
+      <c r="R278" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S278" s="3"/>
       <c r="T278" s="10"/>
     </row>
@@ -26864,7 +26973,9 @@
       <c r="Q279" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="R279" s="3"/>
+      <c r="R279" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="S279" s="3"/>
       <c r="T279" s="10"/>
     </row>
@@ -43818,7 +43929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -59666,7 +59777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -59694,9 +59807,15 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -60687,9 +60806,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B1000"/>
+  <dimension ref="A3:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -60698,7 +60819,7 @@
     <col min="3" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
@@ -60706,7 +60827,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>49</v>
       </c>
@@ -60714,7 +60835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>221</v>
       </c>
@@ -60722,7 +60843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>514</v>
       </c>
@@ -60730,15 +60851,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>160</v>
       </c>
       <c r="B7" s="59">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>98</v>
       </c>
@@ -60746,7 +60869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>434</v>
       </c>
@@ -60754,7 +60877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>278</v>
       </c>
@@ -60762,7 +60885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>554</v>
       </c>
@@ -60770,7 +60893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>344</v>
       </c>
@@ -60778,7 +60901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>255</v>
       </c>
@@ -60786,7 +60909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>361</v>
       </c>
@@ -60794,7 +60917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>625</v>
       </c>
@@ -60802,7 +60925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>133</v>
       </c>

--- a/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3372,12 +3372,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3542,6 +3568,34 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3561,7 +3615,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45593.715164120367" refreshedVersion="6" recordCount="354">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45614.82152928241" refreshedVersion="6" recordCount="354">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S355" sheet="Componentes"/>
   </cacheSource>
@@ -3871,7 +3925,7 @@
     <n v="5.9240000000000004"/>
     <n v="4.1470000000000002"/>
     <s v="4.802"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -3892,7 +3946,7 @@
     <n v="5.9240000000000004"/>
     <n v="4.1470000000000002"/>
     <s v="4.802"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -3913,7 +3967,7 @@
     <n v="5.9240000000000004"/>
     <n v="4.1470000000000002"/>
     <s v="4.802"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -3976,7 +4030,7 @@
     <n v="7.5670000000000002"/>
     <n v="6.13"/>
     <n v="165.845"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -3997,7 +4051,7 @@
     <n v="7.5670000000000002"/>
     <n v="6.13"/>
     <n v="165.845"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -4018,7 +4072,7 @@
     <n v="7.5670000000000002"/>
     <n v="6.13"/>
     <n v="165.845"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -4039,7 +4093,7 @@
     <n v="7.5670000000000002"/>
     <n v="6.13"/>
     <n v="165.845"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -6874,7 +6928,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -6895,7 +6949,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -6916,7 +6970,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -6937,7 +6991,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -6958,7 +7012,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -6979,7 +7033,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -7000,7 +7054,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -7021,7 +7075,7 @@
     <n v="79.754999999999995"/>
     <n v="79.754999999999995"/>
     <s v="81.781"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -7273,7 +7327,7 @@
     <n v="7.9279999999999999"/>
     <n v="7.9279999999999999"/>
     <s v="17.740"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -7294,7 +7348,7 @@
     <n v="7.9279999999999999"/>
     <n v="7.9279999999999999"/>
     <s v="17.740"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -7315,7 +7369,7 @@
     <n v="7.9279999999999999"/>
     <n v="7.9279999999999999"/>
     <s v="17.740"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -7336,7 +7390,7 @@
     <n v="7.9279999999999999"/>
     <n v="7.9279999999999999"/>
     <s v="17.740"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -8890,7 +8944,7 @@
     <n v="5.1909999999999998"/>
     <n v="5.1909999999999998"/>
     <s v="9.592"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -8911,7 +8965,7 @@
     <n v="5.1909999999999998"/>
     <n v="5.1909999999999998"/>
     <s v="9.592"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -8932,7 +8986,7 @@
     <n v="5.1909999999999998"/>
     <n v="5.1909999999999998"/>
     <s v="9.592"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -9499,7 +9553,7 @@
     <n v="2.992"/>
     <n v="2.992"/>
     <s v="2.992"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -9520,7 +9574,7 @@
     <n v="2.992"/>
     <n v="2.992"/>
     <s v="2.992"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -9541,7 +9595,7 @@
     <n v="2.992"/>
     <n v="2.992"/>
     <s v="2.992"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -9562,7 +9616,7 @@
     <n v="2.992"/>
     <n v="2.992"/>
     <s v="2.992"/>
-    <m/>
+    <s v="Máximo"/>
     <m/>
   </r>
   <r>
@@ -11787,7 +11841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -43929,9 +43983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -47383,13 +47437,13 @@
       <c r="B170" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="72">
         <v>2</v>
       </c>
-      <c r="D170" s="40" t="s">
+      <c r="D170" s="73" t="s">
         <v>641</v>
       </c>
-      <c r="E170" s="41" t="s">
+      <c r="E170" s="74" t="s">
         <v>642</v>
       </c>
       <c r="F170" s="42">
@@ -47401,19 +47455,19 @@
       <c r="A171" s="3">
         <v>26</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="77">
         <v>2</v>
       </c>
-      <c r="D171" s="40" t="s">
+      <c r="D171" s="78" t="s">
         <v>643</v>
       </c>
-      <c r="E171" s="41" t="s">
+      <c r="E171" s="79" t="s">
         <v>644</v>
       </c>
-      <c r="F171" s="42">
+      <c r="F171" s="71">
         <v>0.12</v>
       </c>
       <c r="G171" s="10"/>
@@ -47422,19 +47476,19 @@
       <c r="A172" s="3">
         <v>26</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="77">
         <v>2</v>
       </c>
-      <c r="D172" s="40" t="s">
+      <c r="D172" s="78" t="s">
         <v>645</v>
       </c>
-      <c r="E172" s="41" t="s">
+      <c r="E172" s="79" t="s">
         <v>646</v>
       </c>
-      <c r="F172" s="42">
+      <c r="F172" s="71">
         <v>0.2</v>
       </c>
       <c r="G172" s="10"/>
@@ -47443,19 +47497,19 @@
       <c r="A173" s="3">
         <v>26</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="77">
         <v>2</v>
       </c>
-      <c r="D173" s="40" t="s">
+      <c r="D173" s="78" t="s">
         <v>660</v>
       </c>
-      <c r="E173" s="44" t="s">
+      <c r="E173" s="79" t="s">
         <v>661</v>
       </c>
-      <c r="F173" s="42">
+      <c r="F173" s="71">
         <v>0.15</v>
       </c>
       <c r="G173" s="10"/>
@@ -47464,19 +47518,19 @@
       <c r="A174" s="3">
         <v>26</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="77">
         <v>2</v>
       </c>
-      <c r="D174" s="40" t="s">
+      <c r="D174" s="78" t="s">
         <v>656</v>
       </c>
-      <c r="E174" s="44" t="s">
+      <c r="E174" s="79" t="s">
         <v>657</v>
       </c>
-      <c r="F174" s="42">
+      <c r="F174" s="71">
         <v>0.6</v>
       </c>
       <c r="G174" s="10"/>
@@ -47488,13 +47542,13 @@
       <c r="B175" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="75">
         <v>2</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="75" t="s">
         <v>649</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="76" t="s">
         <v>650</v>
       </c>
       <c r="F175" s="39">
@@ -47764,7 +47818,7 @@
       <c r="D187" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="66" t="s">
         <v>640</v>
       </c>
       <c r="F187" s="39">
@@ -47782,13 +47836,15 @@
       <c r="C188" s="3">
         <v>4</v>
       </c>
-      <c r="D188" s="40" t="s">
+      <c r="D188" s="80" t="s">
         <v>641</v>
       </c>
-      <c r="E188" s="41" t="s">
+      <c r="E188" s="79" t="s">
         <v>642</v>
       </c>
-      <c r="F188" s="39"/>
+      <c r="F188" s="71">
+        <v>0.1</v>
+      </c>
       <c r="G188" s="10"/>
     </row>
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -47801,13 +47857,15 @@
       <c r="C189" s="3">
         <v>4</v>
       </c>
-      <c r="D189" s="40" t="s">
+      <c r="D189" s="80" t="s">
         <v>643</v>
       </c>
-      <c r="E189" s="41" t="s">
+      <c r="E189" s="79" t="s">
         <v>644</v>
       </c>
-      <c r="F189" s="39"/>
+      <c r="F189" s="71">
+        <v>0.12</v>
+      </c>
       <c r="G189" s="10"/>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -47820,13 +47878,15 @@
       <c r="C190" s="3">
         <v>4</v>
       </c>
-      <c r="D190" s="40" t="s">
+      <c r="D190" s="80" t="s">
         <v>660</v>
       </c>
-      <c r="E190" s="44" t="s">
+      <c r="E190" s="79" t="s">
         <v>661</v>
       </c>
-      <c r="F190" s="39"/>
+      <c r="F190" s="71">
+        <v>0.15</v>
+      </c>
       <c r="G190" s="10"/>
     </row>
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -47839,13 +47899,15 @@
       <c r="C191" s="3">
         <v>4</v>
       </c>
-      <c r="D191" s="40" t="s">
+      <c r="D191" s="80" t="s">
         <v>656</v>
       </c>
-      <c r="E191" s="44" t="s">
+      <c r="E191" s="79" t="s">
         <v>657</v>
       </c>
-      <c r="F191" s="39"/>
+      <c r="F191" s="71">
+        <v>0.6</v>
+      </c>
       <c r="G191" s="10"/>
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -47858,13 +47920,13 @@
       <c r="C192" s="3">
         <v>4</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="70" t="s">
         <v>649</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="81" t="s">
         <v>650</v>
       </c>
-      <c r="F192" s="39">
+      <c r="F192" s="71">
         <v>0.12</v>
       </c>
       <c r="G192" s="10"/>
@@ -47879,13 +47941,13 @@
       <c r="C193" s="3">
         <v>4</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="70" t="s">
         <v>651</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="81" t="s">
         <v>652</v>
       </c>
-      <c r="F193" s="39">
+      <c r="F193" s="71">
         <v>0.06</v>
       </c>
       <c r="G193" s="10"/>
@@ -47903,7 +47965,7 @@
       <c r="D194" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="76" t="s">
         <v>655</v>
       </c>
       <c r="F194" s="39">

--- a/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -3615,7 +3615,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45614.82152928241" refreshedVersion="6" recordCount="354">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45617.977106018516" refreshedVersion="6" recordCount="354">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S355" sheet="Componentes"/>
   </cacheSource>
@@ -11219,7 +11219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Hoja1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Hoja1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
   <location ref="A3:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField name="ID" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -11841,16 +11841,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
@@ -43983,9 +43984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="9168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="673">
   <si>
     <t>ID</t>
   </si>
@@ -3112,6 +3112,12 @@
   </si>
   <si>
     <t>Se añadió categoría de colapsar el 29/10/24</t>
+  </si>
+  <si>
+    <t>Extremo 1</t>
+  </si>
+  <si>
+    <t>Extremo 2</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3596,6 +3602,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3615,7 +3624,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45617.977106018516" refreshedVersion="6" recordCount="354">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Paolo Valcarcel Pineda" refreshedDate="45622.672799652777" refreshedVersion="6" recordCount="354">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S355" sheet="Componentes"/>
   </cacheSource>
@@ -11219,7 +11228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Hoja1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Hoja1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
   <location ref="A3:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField name="ID" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -11841,7 +11850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -43984,9 +43993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G666" sqref="G666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -57433,7 +57442,9 @@
       <c r="F662" s="39">
         <v>0.52</v>
       </c>
-      <c r="G662" s="10"/>
+      <c r="G662" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3">
@@ -57454,7 +57465,9 @@
       <c r="F663" s="42">
         <v>0.3</v>
       </c>
-      <c r="G663" s="10"/>
+      <c r="G663" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3">
@@ -57475,7 +57488,9 @@
       <c r="F664" s="42">
         <v>0.12</v>
       </c>
-      <c r="G664" s="10"/>
+      <c r="G664" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3">
@@ -57496,7 +57511,9 @@
       <c r="F665" s="42">
         <v>0.1</v>
       </c>
-      <c r="G665" s="10"/>
+      <c r="G665" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3">
@@ -57517,7 +57534,9 @@
       <c r="F666" s="39">
         <v>0.04</v>
       </c>
-      <c r="G666" s="10"/>
+      <c r="G666" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3">
@@ -57538,7 +57557,9 @@
       <c r="F667" s="39">
         <v>0.18</v>
       </c>
-      <c r="G667" s="10"/>
+      <c r="G667" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3">
@@ -57559,7 +57580,9 @@
       <c r="F668" s="39">
         <v>-0.1</v>
       </c>
-      <c r="G668" s="10"/>
+      <c r="G668" s="82" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3">
@@ -57580,7 +57603,9 @@
       <c r="F669" s="39">
         <v>0.52</v>
       </c>
-      <c r="G669" s="10"/>
+      <c r="G669" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3">
@@ -57601,7 +57626,9 @@
       <c r="F670" s="42">
         <v>0.3</v>
       </c>
-      <c r="G670" s="10"/>
+      <c r="G670" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="3">
@@ -57622,7 +57649,9 @@
       <c r="F671" s="42">
         <v>0.12</v>
       </c>
-      <c r="G671" s="10"/>
+      <c r="G671" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="3">
@@ -57643,7 +57672,9 @@
       <c r="F672" s="42">
         <v>0.1</v>
       </c>
-      <c r="G672" s="10"/>
+      <c r="G672" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="3">
@@ -57664,7 +57695,9 @@
       <c r="F673" s="39">
         <v>0.04</v>
       </c>
-      <c r="G673" s="10"/>
+      <c r="G673" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="3">
@@ -57685,7 +57718,9 @@
       <c r="F674" s="39">
         <v>0.06</v>
       </c>
-      <c r="G674" s="10"/>
+      <c r="G674" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="3">
@@ -57706,7 +57741,9 @@
       <c r="F675" s="39">
         <v>-0.1</v>
       </c>
-      <c r="G675" s="10"/>
+      <c r="G675" s="82" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="3">
